--- a/biology/Zoologie/Coenonympha/Coenonympha.xlsx
+++ b/biology/Zoologie/Coenonympha/Coenonympha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Coenonympha regroupe des lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Satyrinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Coenonympha a été donné par Jakob Hübner en 1819.
 Synonymes : Chortobius (Dunning et Pickard, 1858) et (Doubleday, 1859), Sicca (Verity, 1953).
@@ -543,13 +557,49 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Coenonympha haydenii (W. H. Edwards, 1872)
-Coenonympha tullia (Müller, 1764)
-Espèces
-Coenonympha amaryllis (Stoll, 1782) en Asie.
+Coenonympha tullia (Müller, 1764)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coenonympha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coenonympha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coenonympha amaryllis (Stoll, 1782) en Asie.
 Coenonympha amaryllis simingica (Murayama)
 Coenonympha ampelos (Edwards, 1871) ou Coenonympha tullia ampelos le Northwest Ringlet.
 Coenonympha ampelos columbiana (McDunnough, 1928)
@@ -596,7 +646,7 @@
 Coenonympha kodiak (Edwards, 1869) en Alaska et dans le Nord de la Sibérie.
 Coenonympha leander (Esper, 1784) — Fadet pont-euxin en Hongrie, Bulgarie, Sud de la Russie, Asie Mineure, Arménie et Iran.
 Coenonympha leander obscura Heyne, 1894
-Coenonympha leander orientalis Rebel[1].
+Coenonympha leander orientalis Rebel.
 Coenonympha mahometana (Alphéraky, 1881).
 Coenonympha mangeri (Bang Haas, 1927) en Afghanistan.
 Coenonympha mongolica (Alphéraky, 1881).
@@ -670,9 +720,43 @@
 Coenonympha vaucheri annoceuri (Wyatt, 1952) au Maroc.
 Coenonympha vaucheri beraberensis (Lay &amp; Rose, 1979) au Maroc.
 Coenonympha vaucheri rifensis (Weiss, 1979)
-Coenonympha xinjiangensis (Chou et Huang, 1994).
-Note
-Cette espèce est souvent considérée comme une sous-espèce de Coenonympha dorus (Esper, 1782) ou fadet des garrigues.</t>
+Coenonympha xinjiangensis (Chou et Huang, 1994).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coenonympha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coenonympha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette espèce est souvent considérée comme une sous-espèce de Coenonympha dorus (Esper, 1782) ou fadet des garrigues.</t>
         </is>
       </c>
     </row>
